--- a/data/trans_orig/P72-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P72-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6512CA44-BE33-49C1-A39F-30E9AEAC8214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED78650-3BFB-4007-8FC3-91EE4668DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D143AB90-DBF9-462A-B13B-729179767C1F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{65D8AA69-6BD7-460D-842A-28B1BA0ED09D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1343">
   <si>
     <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2007 (Tasa respuesta: 53,36%)</t>
   </si>
@@ -1726,7 +1726,169 @@
     <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 76,33%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -1744,9 +1906,6 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
@@ -1894,9 +2053,6 @@
     <t>10,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
@@ -1909,9 +2065,6 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
     <t>1,07%</t>
   </si>
   <si>
@@ -2020,1476 +2173,1449 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2016 (Tasa respuesta: 76,53%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2016 (Tasa respuesta: 76,53%)</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
     <t>6,13%</t>
   </si>
   <si>
@@ -3652,15 +3778,9 @@
     <t>11,07%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
     <t>13,75%</t>
   </si>
   <si>
@@ -3730,12 +3850,6 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>3,63%</t>
   </si>
   <si>
@@ -3793,9 +3907,6 @@
     <t>29,0%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
     <t>31,92%</t>
   </si>
   <si>
@@ -3832,9 +3943,6 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
     <t>6,61%</t>
   </si>
   <si>
@@ -3862,9 +3970,6 @@
     <t>2,51%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
     <t>6,72%</t>
   </si>
   <si>
@@ -3947,9 +4052,6 @@
   </si>
   <si>
     <t>9,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
   </si>
   <si>
     <t>10,82%</t>
@@ -4376,7 +4478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A41374-7E93-40C0-879D-B7596B680427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941138DB-30F7-4C4E-9487-04527EE112D6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8661,7 +8763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C105F-0E20-4E8C-A1AC-1FEE86DD3587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E9263-427B-4FF9-A5A1-39A66417913E}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8779,43 +8881,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2588</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>562</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>562</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>982</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3570</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>562</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>562</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,43 +8932,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3555</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>934</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>562</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4488</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>562</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>562</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,43 +8983,49 @@
         <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5720</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7209</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>562</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12929</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>562</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,43 +9034,49 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18071</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7995</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N7" s="7">
+        <v>26065</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>562</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8959,43 +9085,49 @@
         <v>45</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24821</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>17503</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="N8" s="7">
+        <v>42325</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,43 +9136,49 @@
         <v>55</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="7">
+        <v>40954</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>562</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="7">
+        <v>37248</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="N9" s="7">
+        <v>78203</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9049,43 +9187,49 @@
         <v>65</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16581</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32093</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="N10" s="7">
+        <v>48674</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9094,43 +9238,49 @@
         <v>75</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15990</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10666</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26656</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>562</v>
+        <v>616</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>562</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>562</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9139,43 +9289,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D12" s="7">
+        <v>128280</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="I12" s="7">
+        <v>114629</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="N12" s="7">
+        <v>242910</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,7 +9354,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -9207,13 +9363,13 @@
         <v>3004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -9225,7 +9381,7 @@
         <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>216</v>
@@ -9249,7 +9405,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -9258,13 +9414,13 @@
         <v>1957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -9279,7 +9435,7 @@
         <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9450,13 @@
         <v>8568</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -9315,7 +9471,7 @@
         <v>552</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -9324,13 +9480,13 @@
         <v>21782</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9501,13 @@
         <v>21962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -9360,13 +9516,13 @@
         <v>21857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -9375,13 +9531,13 @@
         <v>43819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>583</v>
+        <v>636</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>585</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,13 +9552,13 @@
         <v>46778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -9411,13 +9567,13 @@
         <v>41526</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>589</v>
+        <v>642</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -9426,10 +9582,10 @@
         <v>88304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>109</v>
@@ -9447,13 +9603,13 @@
         <v>83662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>594</v>
+        <v>647</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>595</v>
+        <v>648</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="H18" s="7">
         <v>88</v>
@@ -9462,13 +9618,13 @@
         <v>94218</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>598</v>
+        <v>651</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="M18" s="7">
         <v>164</v>
@@ -9480,10 +9636,10 @@
         <v>63</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9498,13 +9654,13 @@
         <v>117583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -9513,13 +9669,13 @@
         <v>132306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="M19" s="7">
         <v>236</v>
@@ -9528,13 +9684,13 @@
         <v>249890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,10 +9705,10 @@
         <v>24139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>70</v>
@@ -9564,13 +9720,13 @@
         <v>30105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -9579,13 +9735,13 @@
         <v>54244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,7 +9815,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9674,7 +9830,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9704,13 +9860,13 @@
         <v>3926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -9725,7 +9881,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -9734,13 +9890,13 @@
         <v>6364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,10 +9914,10 @@
         <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -9773,7 +9929,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>341</v>
@@ -9788,10 +9944,10 @@
         <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,10 +9962,10 @@
         <v>14521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>212</v>
@@ -9824,7 +9980,7 @@
         <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>525</v>
@@ -9836,10 +9992,10 @@
         <v>38190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>172</v>
@@ -9857,7 +10013,7 @@
         <v>40831</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>321</v>
@@ -9872,10 +10028,10 @@
         <v>57720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>74</v>
@@ -9887,13 +10043,13 @@
         <v>98551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9908,13 +10064,13 @@
         <v>137750</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>362</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="H27" s="7">
         <v>112</v>
@@ -9923,13 +10079,13 @@
         <v>119846</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="M27" s="7">
         <v>248</v>
@@ -9938,13 +10094,13 @@
         <v>257595</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9959,13 +10115,13 @@
         <v>67064</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -9974,13 +10130,13 @@
         <v>95045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="M28" s="7">
         <v>154</v>
@@ -9989,13 +10145,13 @@
         <v>162109</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>654</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10016,7 +10172,7 @@
         <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -10028,10 +10184,10 @@
         <v>78</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -10043,10 +10199,10 @@
         <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10108,49 +10264,49 @@
         <v>10</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>2588</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>661</v>
+        <v>379</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="M31" s="7">
-        <v>4</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3570</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>663</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>664</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>277</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10159,49 +10315,49 @@
         <v>16</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>12564</v>
+        <v>9010</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="H32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>8877</v>
+        <v>7943</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>341</v>
+        <v>716</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>456</v>
+        <v>718</v>
       </c>
       <c r="M32" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>21441</v>
+        <v>16953</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>91</v>
+        <v>719</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>22</v>
+        <v>720</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10210,49 +10366,49 @@
         <v>25</v>
       </c>
       <c r="C33" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7">
-        <v>19031</v>
+        <v>13312</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>146</v>
+        <v>722</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>670</v>
+        <v>557</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="H33" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I33" s="7">
-        <v>19376</v>
+        <v>12168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="M33" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N33" s="7">
-        <v>38408</v>
+        <v>25479</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>29</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10261,49 +10417,49 @@
         <v>35</v>
       </c>
       <c r="C34" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D34" s="7">
-        <v>43666</v>
+        <v>25595</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>676</v>
+        <v>730</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="H34" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I34" s="7">
-        <v>35004</v>
+        <v>27010</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>405</v>
+        <v>732</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="M34" s="7">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="N34" s="7">
-        <v>78670</v>
+        <v>52604</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>736</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>681</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10312,49 +10468,49 @@
         <v>45</v>
       </c>
       <c r="C35" s="7">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D35" s="7">
-        <v>79554</v>
+        <v>54732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>549</v>
+        <v>739</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="H35" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7">
-        <v>56487</v>
+        <v>38983</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>686</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="N35" s="7">
-        <v>136040</v>
+        <v>93715</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>687</v>
+        <v>743</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>688</v>
+        <v>744</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>689</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10363,49 +10519,49 @@
         <v>55</v>
       </c>
       <c r="C36" s="7">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D36" s="7">
-        <v>97749</v>
+        <v>56795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>690</v>
+        <v>746</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>691</v>
+        <v>351</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="H36" s="7">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="I36" s="7">
-        <v>113529</v>
+        <v>76280</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="M36" s="7">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="N36" s="7">
-        <v>211278</v>
+        <v>133076</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>309</v>
+        <v>751</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>696</v>
+        <v>752</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>697</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10414,49 +10570,49 @@
         <v>65</v>
       </c>
       <c r="C37" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D37" s="7">
-        <v>51211</v>
+        <v>34630</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>698</v>
+        <v>754</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>699</v>
+        <v>755</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="H37" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I37" s="7">
-        <v>83137</v>
+        <v>51044</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>701</v>
+        <v>757</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>702</v>
+        <v>429</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="M37" s="7">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="N37" s="7">
-        <v>134348</v>
+        <v>85674</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10465,49 +10621,49 @@
         <v>75</v>
       </c>
       <c r="C38" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D38" s="7">
-        <v>26227</v>
+        <v>10237</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>29</v>
+        <v>762</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="H38" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I38" s="7">
-        <v>20127</v>
+        <v>9461</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>710</v>
+        <v>329</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>711</v>
+        <v>765</v>
       </c>
       <c r="M38" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N38" s="7">
-        <v>46354</v>
+        <v>19697</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>611</v>
+        <v>766</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>713</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10516,10 +10672,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="D39" s="7">
-        <v>332591</v>
+        <v>204310</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>79</v>
@@ -10531,10 +10687,10 @@
         <v>79</v>
       </c>
       <c r="H39" s="7">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="I39" s="7">
-        <v>337518</v>
+        <v>222889</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>79</v>
@@ -10546,10 +10702,10 @@
         <v>79</v>
       </c>
       <c r="M39" s="7">
-        <v>622</v>
+        <v>397</v>
       </c>
       <c r="N39" s="7">
-        <v>670109</v>
+        <v>427199</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>79</v>
@@ -10581,7 +10737,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10605,13 +10761,13 @@
         <v>1014</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10641,10 +10797,10 @@
         <v>3952</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>518</v>
@@ -10656,13 +10812,13 @@
         <v>7763</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10677,13 +10833,13 @@
         <v>16010</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>722</v>
+        <v>773</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -10692,13 +10848,13 @@
         <v>9581</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>726</v>
+        <v>777</v>
       </c>
       <c r="M42" s="7">
         <v>24</v>
@@ -10707,13 +10863,13 @@
         <v>25591</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>729</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10728,10 +10884,10 @@
         <v>23853</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>730</v>
+        <v>780</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>731</v>
+        <v>781</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>427</v>
@@ -10743,13 +10899,13 @@
         <v>20535</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="M43" s="7">
         <v>42</v>
@@ -10758,13 +10914,13 @@
         <v>44388</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>735</v>
+        <v>785</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10779,13 +10935,13 @@
         <v>48396</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>736</v>
+        <v>786</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>737</v>
+        <v>787</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="H44" s="7">
         <v>42</v>
@@ -10794,13 +10950,13 @@
         <v>44019</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>740</v>
+        <v>790</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>741</v>
+        <v>791</v>
       </c>
       <c r="M44" s="7">
         <v>87</v>
@@ -10809,13 +10965,13 @@
         <v>92415</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>742</v>
+        <v>792</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>358</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10830,13 +10986,13 @@
         <v>70791</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>746</v>
+        <v>796</v>
       </c>
       <c r="H45" s="7">
         <v>70</v>
@@ -10845,13 +11001,13 @@
         <v>71325</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="M45" s="7">
         <v>137</v>
@@ -10860,13 +11016,13 @@
         <v>142116</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>751</v>
+        <v>801</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>752</v>
+        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10881,13 +11037,13 @@
         <v>36647</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>754</v>
+        <v>804</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>755</v>
+        <v>805</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -10896,13 +11052,13 @@
         <v>48331</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>757</v>
+        <v>807</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="M46" s="7">
         <v>77</v>
@@ -10911,13 +11067,13 @@
         <v>84978</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>759</v>
+        <v>809</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10932,13 +11088,13 @@
         <v>5037</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -10947,10 +11103,10 @@
         <v>12959</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>763</v>
+        <v>813</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>407</v>
@@ -10968,7 +11124,7 @@
         <v>502</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>764</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11057,7 +11213,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -11072,7 +11228,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11090,10 +11246,10 @@
         <v>96</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>767</v>
+        <v>817</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -11120,10 +11276,10 @@
         <v>222</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>768</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11141,10 +11297,10 @@
         <v>391</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -11159,7 +11315,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -11168,10 +11324,10 @@
         <v>4060</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>770</v>
+        <v>819</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>501</v>
@@ -11189,10 +11345,10 @@
         <v>28885</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>427</v>
@@ -11204,13 +11360,13 @@
         <v>14710</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="M52" s="7">
         <v>40</v>
@@ -11219,10 +11375,10 @@
         <v>43596</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>777</v>
+        <v>826</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>778</v>
+        <v>827</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>37</v>
@@ -11243,10 +11399,10 @@
         <v>293</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>779</v>
+        <v>828</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>780</v>
+        <v>829</v>
       </c>
       <c r="H53" s="7">
         <v>42</v>
@@ -11255,13 +11411,13 @@
         <v>44308</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>781</v>
+        <v>830</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>356</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>782</v>
+        <v>831</v>
       </c>
       <c r="M53" s="7">
         <v>77</v>
@@ -11270,10 +11426,10 @@
         <v>81207</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>783</v>
+        <v>832</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>784</v>
+        <v>833</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>295</v>
@@ -11291,13 +11447,13 @@
         <v>107182</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>785</v>
+        <v>834</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>786</v>
+        <v>835</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="H54" s="7">
         <v>98</v>
@@ -11306,13 +11462,13 @@
         <v>101861</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>788</v>
+        <v>837</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>790</v>
+        <v>839</v>
       </c>
       <c r="M54" s="7">
         <v>201</v>
@@ -11324,10 +11480,10 @@
         <v>58</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11342,10 +11498,10 @@
         <v>55997</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>793</v>
+        <v>842</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>475</v>
@@ -11357,13 +11513,13 @@
         <v>85919</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>797</v>
+        <v>846</v>
       </c>
       <c r="M55" s="7">
         <v>136</v>
@@ -11372,13 +11528,13 @@
         <v>141916</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>798</v>
+        <v>847</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>682</v>
+        <v>848</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>799</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11393,13 +11549,13 @@
         <v>11334</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="H56" s="7">
         <v>13</v>
@@ -11408,13 +11564,13 @@
         <v>13293</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>768</v>
+        <v>566</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M56" s="7">
         <v>24</v>
@@ -11423,13 +11579,13 @@
         <v>24627</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>801</v>
+        <v>851</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>803</v>
+        <v>853</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11527,13 +11683,13 @@
         <v>2465</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -11554,7 +11710,7 @@
         <v>382</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -11569,7 +11725,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>805</v>
+        <v>855</v>
       </c>
       <c r="M59" s="7">
         <v>12</v>
@@ -11581,10 +11737,10 @@
         <v>225</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>806</v>
+        <v>856</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>807</v>
+        <v>857</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -11599,13 +11755,13 @@
         <v>17503</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>808</v>
+        <v>858</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>809</v>
+        <v>859</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="H60" s="7">
         <v>16</v>
@@ -11614,10 +11770,10 @@
         <v>18196</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>811</v>
+        <v>861</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>438</v>
@@ -11629,10 +11785,10 @@
         <v>35699</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>812</v>
+        <v>562</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>144</v>
@@ -11650,13 +11806,13 @@
         <v>43913</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>813</v>
+        <v>862</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>814</v>
+        <v>863</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>815</v>
+        <v>864</v>
       </c>
       <c r="H61" s="7">
         <v>28</v>
@@ -11665,13 +11821,13 @@
         <v>31041</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>816</v>
+        <v>865</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>817</v>
+        <v>866</v>
       </c>
       <c r="M61" s="7">
         <v>70</v>
@@ -11686,7 +11842,7 @@
         <v>166</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>818</v>
+        <v>867</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11701,13 +11857,13 @@
         <v>94596</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>819</v>
+        <v>868</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>820</v>
+        <v>869</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="H62" s="7">
         <v>89</v>
@@ -11716,13 +11872,13 @@
         <v>98217</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>822</v>
+        <v>871</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>823</v>
+        <v>872</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>700</v>
+        <v>873</v>
       </c>
       <c r="M62" s="7">
         <v>174</v>
@@ -11731,13 +11887,13 @@
         <v>192814</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>826</v>
+        <v>876</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11752,13 +11908,13 @@
         <v>225434</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>827</v>
+        <v>877</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>828</v>
+        <v>878</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>829</v>
+        <v>879</v>
       </c>
       <c r="H63" s="7">
         <v>202</v>
@@ -11767,13 +11923,13 @@
         <v>218768</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>831</v>
+        <v>881</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="M63" s="7">
         <v>416</v>
@@ -11782,13 +11938,13 @@
         <v>444203</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>833</v>
+        <v>883</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>834</v>
+        <v>884</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>835</v>
+        <v>885</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11806,10 +11962,10 @@
         <v>137</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>837</v>
+        <v>887</v>
       </c>
       <c r="H64" s="7">
         <v>187</v>
@@ -11818,13 +11974,13 @@
         <v>203726</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>838</v>
+        <v>888</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>703</v>
+        <v>889</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>839</v>
+        <v>890</v>
       </c>
       <c r="M64" s="7">
         <v>318</v>
@@ -11839,7 +11995,7 @@
         <v>236</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>840</v>
+        <v>891</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11854,13 +12010,13 @@
         <v>26708</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>843</v>
+        <v>894</v>
       </c>
       <c r="H65" s="7">
         <v>21</v>
@@ -11872,10 +12028,10 @@
         <v>224</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>844</v>
+        <v>895</v>
       </c>
       <c r="M65" s="7">
         <v>45</v>
@@ -11887,10 +12043,10 @@
         <v>506</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>763</v>
+        <v>813</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>814</v>
+        <v>863</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11964,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -11979,7 +12135,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>846</v>
+        <v>897</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -11988,13 +12144,13 @@
         <v>1125</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>847</v>
+        <v>898</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>848</v>
+        <v>899</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -12009,13 +12165,13 @@
         <v>12375</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>850</v>
+        <v>901</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>851</v>
+        <v>902</v>
       </c>
       <c r="H68" s="7">
         <v>5</v>
@@ -12024,10 +12180,10 @@
         <v>7044</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>852</v>
+        <v>903</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>853</v>
+        <v>904</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>501</v>
@@ -12042,10 +12198,10 @@
         <v>214</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>854</v>
+        <v>905</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -12060,13 +12216,13 @@
         <v>19829</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="H69" s="7">
         <v>17</v>
@@ -12075,13 +12231,13 @@
         <v>18235</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>856</v>
+        <v>907</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>391</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>857</v>
+        <v>908</v>
       </c>
       <c r="M69" s="7">
         <v>37</v>
@@ -12093,10 +12249,10 @@
         <v>87</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>858</v>
+        <v>909</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -12111,13 +12267,13 @@
         <v>57309</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>859</v>
+        <v>910</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>860</v>
+        <v>911</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>861</v>
+        <v>912</v>
       </c>
       <c r="H70" s="7">
         <v>47</v>
@@ -12126,7 +12282,7 @@
         <v>51775</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>275</v>
@@ -12141,13 +12297,13 @@
         <v>109083</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>863</v>
+        <v>914</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>864</v>
+        <v>915</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>865</v>
+        <v>916</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -12162,13 +12318,13 @@
         <v>112525</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>866</v>
+        <v>917</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>867</v>
+        <v>918</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>868</v>
+        <v>919</v>
       </c>
       <c r="H71" s="7">
         <v>107</v>
@@ -12177,13 +12333,13 @@
         <v>116245</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>869</v>
+        <v>920</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>870</v>
+        <v>921</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>871</v>
+        <v>922</v>
       </c>
       <c r="M71" s="7">
         <v>209</v>
@@ -12192,13 +12348,13 @@
         <v>228770</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>872</v>
+        <v>923</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>873</v>
+        <v>924</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>874</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -12213,13 +12369,13 @@
         <v>260603</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>875</v>
+        <v>926</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
       <c r="H72" s="7">
         <v>263</v>
@@ -12228,13 +12384,13 @@
         <v>286145</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
       <c r="M72" s="7">
         <v>502</v>
@@ -12243,13 +12399,13 @@
         <v>546748</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -12264,13 +12420,13 @@
         <v>160992</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>883</v>
+        <v>934</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>884</v>
+        <v>935</v>
       </c>
       <c r="H73" s="7">
         <v>175</v>
@@ -12279,13 +12435,13 @@
         <v>191917</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
       <c r="M73" s="7">
         <v>320</v>
@@ -12297,10 +12453,10 @@
         <v>534</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>887</v>
+        <v>938</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -12315,13 +12471,13 @@
         <v>25879</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>890</v>
+        <v>941</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="H74" s="7">
         <v>24</v>
@@ -12330,13 +12486,13 @@
         <v>26807</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="M74" s="7">
         <v>48</v>
@@ -12419,13 +12575,13 @@
         <v>6067</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>892</v>
+        <v>943</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>847</v>
+        <v>898</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -12434,13 +12590,13 @@
         <v>5111</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>893</v>
+        <v>944</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>894</v>
+        <v>945</v>
       </c>
       <c r="M76" s="7">
         <v>11</v>
@@ -12449,13 +12605,13 @@
         <v>11178</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>895</v>
+        <v>946</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -12473,7 +12629,7 @@
         <v>22</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>396</v>
@@ -12485,10 +12641,10 @@
         <v>29220</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>897</v>
+        <v>948</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>806</v>
+        <v>856</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>392</v>
@@ -12500,13 +12656,13 @@
         <v>82831</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>898</v>
+        <v>949</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>805</v>
+        <v>855</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -12521,7 +12677,7 @@
         <v>89852</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>102</v>
@@ -12536,10 +12692,10 @@
         <v>81651</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>900</v>
+        <v>951</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>901</v>
+        <v>952</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>152</v>
@@ -12554,10 +12710,10 @@
         <v>92</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>902</v>
+        <v>724</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>903</v>
+        <v>953</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -12575,10 +12731,10 @@
         <v>342</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="H79" s="7">
         <v>181</v>
@@ -12587,13 +12743,13 @@
         <v>198591</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>401</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>906</v>
+        <v>956</v>
       </c>
       <c r="M79" s="7">
         <v>401</v>
@@ -12605,10 +12761,10 @@
         <v>226</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>907</v>
+        <v>957</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>908</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -12623,13 +12779,13 @@
         <v>459580</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>909</v>
+        <v>959</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>910</v>
+        <v>960</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>911</v>
+        <v>961</v>
       </c>
       <c r="H80" s="7">
         <v>424</v>
@@ -12638,13 +12794,13 @@
         <v>458521</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>912</v>
+        <v>962</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>913</v>
+        <v>963</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>914</v>
+        <v>964</v>
       </c>
       <c r="M80" s="7">
         <v>844</v>
@@ -12653,13 +12809,13 @@
         <v>918101</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>688</v>
+        <v>965</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>915</v>
+        <v>966</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>916</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -12674,13 +12830,13 @@
         <v>983172</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>917</v>
+        <v>968</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>918</v>
+        <v>969</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>919</v>
+        <v>970</v>
       </c>
       <c r="H81" s="7">
         <v>937</v>
@@ -12689,10 +12845,10 @@
         <v>1005691</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>920</v>
+        <v>971</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>921</v>
+        <v>972</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>308</v>
@@ -12704,13 +12860,13 @@
         <v>1988863</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>923</v>
+        <v>974</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>924</v>
+        <v>975</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -12725,13 +12881,13 @@
         <v>626717</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>926</v>
+        <v>977</v>
       </c>
       <c r="H82" s="7">
         <v>782</v>
@@ -12740,13 +12896,13 @@
         <v>840382</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>927</v>
+        <v>978</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>929</v>
+        <v>980</v>
       </c>
       <c r="M82" s="7">
         <v>1368</v>
@@ -12755,13 +12911,13 @@
         <v>1467098</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>594</v>
+        <v>647</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>930</v>
+        <v>981</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -12776,13 +12932,13 @@
         <v>132549</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>932</v>
+        <v>983</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>513</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>933</v>
+        <v>984</v>
       </c>
       <c r="H83" s="7">
         <v>125</v>
@@ -12791,13 +12947,13 @@
         <v>136810</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>934</v>
+        <v>985</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="M83" s="7">
         <v>248</v>
@@ -12809,7 +12965,7 @@
         <v>217</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>937</v>
+        <v>988</v>
       </c>
       <c r="Q83" s="7" t="s">
         <v>146</v>
@@ -12892,7 +13048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C18F0ED-ABBA-44DC-9C9A-045DA14D777D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C981B7C0-1A8E-4239-9A91-8C382BBC0BE5}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12909,7 +13065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>938</v>
+        <v>989</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13022,7 +13178,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>939</v>
+        <v>990</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -13046,7 +13202,7 @@
         <v>823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -13070,10 +13226,10 @@
         <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -13082,13 +13238,13 @@
         <v>1807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>943</v>
+        <v>994</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -13097,10 +13253,10 @@
         <v>7023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>944</v>
+        <v>995</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>91</v>
@@ -13121,7 +13277,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>946</v>
+        <v>997</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>172</v>
@@ -13136,10 +13292,10 @@
         <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>948</v>
+        <v>999</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -13148,13 +13304,13 @@
         <v>17234</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>674</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>949</v>
+        <v>1001</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>950</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -13175,7 +13331,7 @@
         <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>951</v>
+        <v>1003</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -13187,7 +13343,7 @@
         <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>858</v>
+        <v>909</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>470</v>
@@ -13199,13 +13355,13 @@
         <v>20232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>952</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -13220,13 +13376,13 @@
         <v>37177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>953</v>
+        <v>734</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>954</v>
+        <v>1005</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>955</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -13235,13 +13391,13 @@
         <v>33337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>956</v>
+        <v>760</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>957</v>
+        <v>1007</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>958</v>
+        <v>1008</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -13250,13 +13406,13 @@
         <v>70514</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>959</v>
+        <v>1009</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>960</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -13271,13 +13427,13 @@
         <v>58970</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>962</v>
+        <v>1012</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>963</v>
+        <v>1013</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -13289,10 +13445,10 @@
         <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>964</v>
+        <v>1014</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="M9" s="7">
         <v>103</v>
@@ -13301,10 +13457,10 @@
         <v>107354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>966</v>
+        <v>1016</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>542</v>
@@ -13322,13 +13478,13 @@
         <v>56103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>967</v>
+        <v>1017</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>968</v>
+        <v>1018</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>969</v>
+        <v>1019</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -13337,13 +13493,13 @@
         <v>77950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>970</v>
+        <v>1020</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>971</v>
+        <v>1021</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>972</v>
+        <v>1022</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -13355,10 +13511,10 @@
         <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>973</v>
+        <v>1023</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>974</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13373,13 +13529,13 @@
         <v>41696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>976</v>
+        <v>1026</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>977</v>
+        <v>1027</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -13388,13 +13544,13 @@
         <v>26173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>978</v>
+        <v>592</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>980</v>
+        <v>1029</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -13403,13 +13559,13 @@
         <v>67869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>981</v>
+        <v>1030</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>982</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -13483,7 +13639,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -13498,7 +13654,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -13513,7 +13669,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -13528,13 +13684,13 @@
         <v>1084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>983</v>
+        <v>1032</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -13549,7 +13705,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -13558,13 +13714,13 @@
         <v>1084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>664</v>
+        <v>1034</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>985</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -13579,10 +13735,10 @@
         <v>2824</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>986</v>
+        <v>1036</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>344</v>
@@ -13597,10 +13753,10 @@
         <v>445</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>892</v>
+        <v>943</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>987</v>
+        <v>1037</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -13609,7 +13765,7 @@
         <v>6851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>846</v>
+        <v>897</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>448</v>
@@ -13636,7 +13792,7 @@
         <v>505</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -13648,10 +13804,10 @@
         <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>988</v>
+        <v>1038</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>989</v>
+        <v>1039</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -13663,10 +13819,10 @@
         <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>990</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -13681,10 +13837,10 @@
         <v>28788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>991</v>
+        <v>1041</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>992</v>
+        <v>1042</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>289</v>
@@ -13696,13 +13852,13 @@
         <v>49793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>993</v>
+        <v>1043</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>994</v>
+        <v>1044</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>995</v>
+        <v>1045</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -13711,13 +13867,13 @@
         <v>78581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>996</v>
+        <v>1046</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>952</v>
+        <v>1004</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>997</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -13732,13 +13888,13 @@
         <v>151622</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>998</v>
+        <v>1048</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>999</v>
+        <v>1049</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -13747,13 +13903,13 @@
         <v>128724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>230</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>1001</v>
+        <v>1051</v>
       </c>
       <c r="M18" s="7">
         <v>268</v>
@@ -13762,13 +13918,13 @@
         <v>280347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>1002</v>
+        <v>1052</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>1003</v>
+        <v>1053</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>1004</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -13783,13 +13939,13 @@
         <v>171800</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1005</v>
+        <v>1055</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1006</v>
+        <v>753</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1007</v>
+        <v>1056</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -13798,13 +13954,13 @@
         <v>176710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1008</v>
+        <v>1057</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>1010</v>
+        <v>1059</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -13813,13 +13969,13 @@
         <v>348510</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>1012</v>
+        <v>1061</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>1013</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -13834,13 +13990,13 @@
         <v>46851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -13852,10 +14008,10 @@
         <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1017</v>
+        <v>1066</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>1018</v>
+        <v>1067</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -13864,13 +14020,13 @@
         <v>102835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>825</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -13944,7 +14100,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>985</v>
+        <v>1035</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -13974,7 +14130,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13992,7 +14148,7 @@
         <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>853</v>
+        <v>904</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>210</v>
@@ -14004,13 +14160,13 @@
         <v>2723</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>949</v>
+        <v>1001</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -14022,10 +14178,10 @@
         <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>894</v>
+        <v>945</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -14040,13 +14196,13 @@
         <v>6428</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -14055,7 +14211,7 @@
         <v>2705</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>278</v>
@@ -14070,13 +14226,13 @@
         <v>9133</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>1024</v>
+        <v>1073</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -14091,13 +14247,13 @@
         <v>40464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1027</v>
+        <v>1076</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -14109,10 +14265,10 @@
         <v>29</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>1028</v>
+        <v>1077</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -14121,13 +14277,13 @@
         <v>64763</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>1029</v>
+        <v>1078</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>1030</v>
+        <v>1079</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>820</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -14142,13 +14298,13 @@
         <v>55114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1031</v>
+        <v>1080</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1032</v>
+        <v>1081</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1033</v>
+        <v>761</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -14160,7 +14316,7 @@
         <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1034</v>
+        <v>1082</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>123</v>
@@ -14172,13 +14328,13 @@
         <v>109348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>1035</v>
+        <v>1083</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>1036</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -14193,13 +14349,13 @@
         <v>83131</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1037</v>
+        <v>1085</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1038</v>
+        <v>595</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1039</v>
+        <v>1086</v>
       </c>
       <c r="H27" s="7">
         <v>98</v>
@@ -14208,13 +14364,13 @@
         <v>97447</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1040</v>
+        <v>1087</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>1041</v>
+        <v>1088</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>1042</v>
+        <v>1089</v>
       </c>
       <c r="M27" s="7">
         <v>188</v>
@@ -14223,13 +14379,13 @@
         <v>180578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>1043</v>
+        <v>1090</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>1044</v>
+        <v>1091</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -14244,13 +14400,13 @@
         <v>82939</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>1047</v>
+        <v>1094</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1048</v>
+        <v>1095</v>
       </c>
       <c r="H28" s="7">
         <v>82</v>
@@ -14259,13 +14415,13 @@
         <v>85276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1049</v>
+        <v>1096</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>1050</v>
+        <v>1097</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>1051</v>
+        <v>1098</v>
       </c>
       <c r="M28" s="7">
         <v>170</v>
@@ -14274,13 +14430,13 @@
         <v>168216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>1052</v>
+        <v>1099</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>1053</v>
+        <v>1100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>1054</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -14295,13 +14451,13 @@
         <v>11829</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>991</v>
+        <v>1041</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -14310,13 +14466,13 @@
         <v>41301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1056</v>
+        <v>1103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>1057</v>
+        <v>1104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>1058</v>
+        <v>1105</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -14325,13 +14481,13 @@
         <v>53130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1059</v>
+        <v>1106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>1061</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -14399,7 +14555,7 @@
         <v>898</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1062</v>
+        <v>1109</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -14420,7 +14576,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -14429,13 +14585,13 @@
         <v>898</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1064</v>
+        <v>1111</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>1065</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -14450,13 +14606,13 @@
         <v>2889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>389</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1067</v>
+        <v>1114</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -14471,7 +14627,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -14480,13 +14636,13 @@
         <v>2889</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>985</v>
+        <v>1035</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -14501,13 +14657,13 @@
         <v>7504</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1069</v>
+        <v>1116</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1070</v>
+        <v>1117</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1071</v>
+        <v>1118</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -14516,13 +14672,13 @@
         <v>2943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1072</v>
+        <v>1119</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>390</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>1073</v>
+        <v>716</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -14531,13 +14687,13 @@
         <v>10447</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>987</v>
+        <v>1037</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -14552,13 +14708,13 @@
         <v>8051</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>903</v>
+        <v>953</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>391</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -14567,13 +14723,13 @@
         <v>18064</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1075</v>
+        <v>1121</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>992</v>
+        <v>1042</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1076</v>
+        <v>1122</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -14582,13 +14738,13 @@
         <v>26115</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1077</v>
+        <v>1123</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>1078</v>
+        <v>1124</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>1079</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -14603,13 +14759,13 @@
         <v>40652</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1081</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1082</v>
+        <v>1127</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -14621,7 +14777,7 @@
         <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1083</v>
+        <v>1128</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>544</v>
@@ -14633,13 +14789,13 @@
         <v>69374</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1084</v>
+        <v>609</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>1085</v>
+        <v>1129</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>1086</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -14654,13 +14810,13 @@
         <v>61223</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1087</v>
+        <v>1131</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1088</v>
+        <v>1132</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -14669,13 +14825,13 @@
         <v>66512</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1089</v>
+        <v>1133</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1090</v>
+        <v>1134</v>
       </c>
       <c r="M36" s="7">
         <v>125</v>
@@ -14684,13 +14840,13 @@
         <v>127735</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1091</v>
+        <v>1135</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>1092</v>
+        <v>1136</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>1093</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -14705,13 +14861,13 @@
         <v>57339</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1094</v>
+        <v>1138</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1095</v>
+        <v>1139</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1096</v>
+        <v>1140</v>
       </c>
       <c r="H37" s="7">
         <v>80</v>
@@ -14720,13 +14876,13 @@
         <v>89802</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1097</v>
+        <v>1141</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1098</v>
+        <v>1142</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1099</v>
+        <v>1143</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -14735,13 +14891,13 @@
         <v>147142</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>1101</v>
+        <v>605</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>1102</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -14756,13 +14912,13 @@
         <v>34855</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1103</v>
+        <v>1146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
@@ -14771,13 +14927,13 @@
         <v>33040</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1106</v>
+        <v>1149</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1107</v>
+        <v>1150</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="M38" s="7">
         <v>64</v>
@@ -14786,13 +14942,13 @@
         <v>67895</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1108</v>
+        <v>1151</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>1109</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -14881,7 +15037,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1110</v>
+        <v>1153</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -14896,7 +15052,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -14911,13 +15067,13 @@
         <v>1735</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>897</v>
+        <v>948</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1112</v>
+        <v>1155</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -14932,7 +15088,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1110</v>
+        <v>1153</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -14947,7 +15103,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1113</v>
+        <v>720</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -14962,13 +15118,13 @@
         <v>1958</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>668</v>
+        <v>1156</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -14983,7 +15139,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1110</v>
+        <v>1153</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -14998,7 +15154,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>811</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -15013,13 +15169,13 @@
         <v>4409</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1114</v>
+        <v>1157</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>393</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1115</v>
+        <v>1158</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -15028,13 +15184,13 @@
         <v>3569</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1116</v>
+        <v>1159</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>663</v>
+        <v>1160</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1117</v>
+        <v>1161</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
@@ -15043,13 +15199,13 @@
         <v>7978</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>228</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>1118</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -15064,10 +15220,10 @@
         <v>11181</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1119</v>
+        <v>1163</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>1120</v>
+        <v>1164</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>472</v>
@@ -15079,13 +15235,13 @@
         <v>17191</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1121</v>
+        <v>1165</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1122</v>
+        <v>1166</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="M44" s="7">
         <v>29</v>
@@ -15094,10 +15250,10 @@
         <v>28372</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>777</v>
+        <v>826</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>1123</v>
+        <v>1167</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>105</v>
@@ -15121,7 +15277,7 @@
         <v>545</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1124</v>
+        <v>1168</v>
       </c>
       <c r="H45" s="7">
         <v>37</v>
@@ -15130,13 +15286,13 @@
         <v>37005</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>1125</v>
+        <v>1169</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>1126</v>
+        <v>737</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>1127</v>
+        <v>1170</v>
       </c>
       <c r="M45" s="7">
         <v>78</v>
@@ -15145,13 +15301,13 @@
         <v>78912</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>1128</v>
+        <v>1171</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>1129</v>
+        <v>1172</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>1130</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -15166,13 +15322,13 @@
         <v>75840</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1131</v>
+        <v>1174</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>1132</v>
+        <v>1175</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1133</v>
+        <v>1176</v>
       </c>
       <c r="H46" s="7">
         <v>87</v>
@@ -15181,13 +15337,13 @@
         <v>84629</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1134</v>
+        <v>1177</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1135</v>
+        <v>1178</v>
       </c>
       <c r="M46" s="7">
         <v>166</v>
@@ -15196,13 +15352,13 @@
         <v>160469</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>1136</v>
+        <v>1179</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>1137</v>
+        <v>1180</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>1138</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -15217,13 +15373,13 @@
         <v>27049</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1139</v>
+        <v>1182</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>232</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1140</v>
+        <v>1183</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -15232,13 +15388,13 @@
         <v>26571</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1141</v>
+        <v>1184</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1142</v>
+        <v>1185</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>1125</v>
+        <v>1169</v>
       </c>
       <c r="M47" s="7">
         <v>52</v>
@@ -15247,13 +15403,13 @@
         <v>53619</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>1143</v>
+        <v>1186</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>1144</v>
+        <v>729</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>1145</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -15327,7 +15483,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1146</v>
+        <v>563</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -15342,7 +15498,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1146</v>
+        <v>563</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -15357,7 +15513,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1147</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -15375,10 +15531,10 @@
         <v>326</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1062</v>
+        <v>1109</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1148</v>
+        <v>1189</v>
       </c>
       <c r="H50" s="7">
         <v>6</v>
@@ -15387,7 +15543,7 @@
         <v>6632</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1149</v>
+        <v>1190</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>228</v>
@@ -15402,10 +15558,10 @@
         <v>9701</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>666</v>
+        <v>1191</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>852</v>
+        <v>903</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>520</v>
@@ -15423,13 +15579,13 @@
         <v>6839</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>514</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1150</v>
+        <v>1192</v>
       </c>
       <c r="H51" s="7">
         <v>3</v>
@@ -15444,7 +15600,7 @@
         <v>390</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>1151</v>
+        <v>1193</v>
       </c>
       <c r="M51" s="7">
         <v>10</v>
@@ -15456,10 +15612,10 @@
         <v>329</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>1152</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -15474,13 +15630,13 @@
         <v>24784</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1153</v>
+        <v>1195</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>440</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1154</v>
+        <v>1196</v>
       </c>
       <c r="H52" s="7">
         <v>30</v>
@@ -15489,13 +15645,13 @@
         <v>30630</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1155</v>
+        <v>1197</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>1157</v>
+        <v>1199</v>
       </c>
       <c r="M52" s="7">
         <v>53</v>
@@ -15504,13 +15660,13 @@
         <v>55414</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>1158</v>
+        <v>1200</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>1159</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -15525,13 +15681,13 @@
         <v>40684</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>964</v>
+        <v>1014</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1160</v>
+        <v>1202</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1161</v>
+        <v>1203</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -15540,13 +15696,13 @@
         <v>34171</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1162</v>
+        <v>1204</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>1164</v>
+        <v>1206</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -15555,13 +15711,13 @@
         <v>74855</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>1165</v>
+        <v>1207</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>1166</v>
+        <v>1208</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>1167</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -15576,10 +15732,10 @@
         <v>69730</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1168</v>
+        <v>1210</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1169</v>
+        <v>1211</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>375</v>
@@ -15591,13 +15747,13 @@
         <v>62888</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1170</v>
+        <v>1212</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1171</v>
+        <v>1213</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>1172</v>
+        <v>1214</v>
       </c>
       <c r="M54" s="7">
         <v>127</v>
@@ -15606,10 +15762,10 @@
         <v>132617</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>1173</v>
+        <v>1215</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>1174</v>
+        <v>1216</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>311</v>
@@ -15627,13 +15783,13 @@
         <v>57107</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1175</v>
+        <v>1217</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1176</v>
+        <v>1218</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1177</v>
+        <v>1219</v>
       </c>
       <c r="H55" s="7">
         <v>66</v>
@@ -15642,10 +15798,10 @@
         <v>70296</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1178</v>
+        <v>1220</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1179</v>
+        <v>1221</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>48</v>
@@ -15657,13 +15813,13 @@
         <v>127402</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1180</v>
+        <v>1222</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1181</v>
+        <v>1223</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>969</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -15678,13 +15834,13 @@
         <v>22004</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>865</v>
+        <v>916</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1182</v>
+        <v>1224</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1183</v>
+        <v>1225</v>
       </c>
       <c r="H56" s="7">
         <v>23</v>
@@ -15693,13 +15849,13 @@
         <v>25964</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1184</v>
+        <v>1226</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1185</v>
+        <v>1227</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1186</v>
+        <v>1228</v>
       </c>
       <c r="M56" s="7">
         <v>43</v>
@@ -15708,13 +15864,13 @@
         <v>47968</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>1187</v>
+        <v>1229</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1188</v>
+        <v>1230</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1189</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -15782,7 +15938,7 @@
         <v>2188</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>894</v>
+        <v>945</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -15797,13 +15953,13 @@
         <v>2052</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1190</v>
+        <v>1232</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>1191</v>
+        <v>1233</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -15815,7 +15971,7 @@
         <v>390</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>895</v>
+        <v>946</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>15</v>
@@ -15839,7 +15995,7 @@
         <v>379</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>1192</v>
+        <v>1234</v>
       </c>
       <c r="H59" s="7">
         <v>6</v>
@@ -15851,10 +16007,10 @@
         <v>156</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1193</v>
+        <v>1235</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="M59" s="7">
         <v>15</v>
@@ -15863,13 +16019,13 @@
         <v>17771</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>1194</v>
+        <v>1236</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>1195</v>
+        <v>1237</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>768</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -15884,13 +16040,13 @@
         <v>26760</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>1196</v>
+        <v>1238</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>279</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="H60" s="7">
         <v>22</v>
@@ -15899,13 +16055,13 @@
         <v>21671</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>1067</v>
+        <v>1114</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>502</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="M60" s="7">
         <v>44</v>
@@ -15914,13 +16070,13 @@
         <v>48431</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>283</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -15935,13 +16091,13 @@
         <v>53490</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>1199</v>
+        <v>1241</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>1188</v>
+        <v>1230</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1200</v>
+        <v>1242</v>
       </c>
       <c r="H61" s="7">
         <v>43</v>
@@ -15950,13 +16106,13 @@
         <v>45601</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>1201</v>
+        <v>1243</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1202</v>
+        <v>1244</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>1203</v>
+        <v>1245</v>
       </c>
       <c r="M61" s="7">
         <v>89</v>
@@ -15965,13 +16121,13 @@
         <v>99091</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1204</v>
+        <v>613</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>993</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -15986,13 +16142,13 @@
         <v>86826</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>1103</v>
+        <v>1146</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>1205</v>
+        <v>1246</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1206</v>
+        <v>606</v>
       </c>
       <c r="H62" s="7">
         <v>71</v>
@@ -16001,13 +16157,13 @@
         <v>73324</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>1207</v>
+        <v>1247</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1208</v>
+        <v>1248</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>1209</v>
+        <v>1249</v>
       </c>
       <c r="M62" s="7">
         <v>149</v>
@@ -16016,13 +16172,13 @@
         <v>160150</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>1210</v>
+        <v>1250</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>1211</v>
+        <v>1251</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>1212</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -16037,13 +16193,13 @@
         <v>173497</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>1093</v>
+        <v>1137</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>1127</v>
+        <v>1170</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>1213</v>
+        <v>1253</v>
       </c>
       <c r="H63" s="7">
         <v>169</v>
@@ -16052,13 +16208,13 @@
         <v>179621</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1214</v>
+        <v>1254</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1215</v>
+        <v>1255</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>1216</v>
+        <v>1256</v>
       </c>
       <c r="M63" s="7">
         <v>319</v>
@@ -16067,13 +16223,13 @@
         <v>353118</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>1217</v>
+        <v>1257</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>1218</v>
+        <v>1258</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>1006</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -16088,7 +16244,7 @@
         <v>151049</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>1219</v>
+        <v>1259</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>532</v>
@@ -16103,13 +16259,13 @@
         <v>168057</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1221</v>
+        <v>1261</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>1006</v>
+        <v>753</v>
       </c>
       <c r="M64" s="7">
         <v>292</v>
@@ -16118,13 +16274,13 @@
         <v>319106</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>1222</v>
+        <v>1262</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1223</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -16139,13 +16295,13 @@
         <v>27124</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>1224</v>
+        <v>1264</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1225</v>
+        <v>1265</v>
       </c>
       <c r="H65" s="7">
         <v>34</v>
@@ -16154,13 +16310,13 @@
         <v>35911</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1226</v>
+        <v>1266</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>1227</v>
+        <v>1267</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -16169,13 +16325,13 @@
         <v>63035</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1123</v>
+        <v>1167</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>1228</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -16264,7 +16420,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -16279,7 +16435,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -16300,7 +16456,7 @@
         <v>214</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>1229</v>
+        <v>1269</v>
       </c>
       <c r="H68" s="7">
         <v>8</v>
@@ -16309,13 +16465,13 @@
         <v>9061</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>1230</v>
+        <v>572</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>1231</v>
+        <v>570</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="M68" s="7">
         <v>21</v>
@@ -16330,7 +16486,7 @@
         <v>156</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>808</v>
+        <v>858</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -16345,13 +16501,13 @@
         <v>19874</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1232</v>
+        <v>1270</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>501</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>1233</v>
+        <v>1271</v>
       </c>
       <c r="H69" s="7">
         <v>21</v>
@@ -16366,7 +16522,7 @@
         <v>227</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>1234</v>
+        <v>1272</v>
       </c>
       <c r="M69" s="7">
         <v>39</v>
@@ -16375,13 +16531,13 @@
         <v>42713</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>396</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>1235</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -16396,13 +16552,13 @@
         <v>43694</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>818</v>
+        <v>867</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1237</v>
+        <v>1275</v>
       </c>
       <c r="H70" s="7">
         <v>42</v>
@@ -16411,13 +16567,13 @@
         <v>45489</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>735</v>
+        <v>785</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1234</v>
+        <v>1272</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
       <c r="M70" s="7">
         <v>82</v>
@@ -16432,7 +16588,7 @@
         <v>434</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>1239</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -16447,10 +16603,10 @@
         <v>122869</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>1240</v>
+        <v>1278</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>826</v>
+        <v>876</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>246</v>
@@ -16465,10 +16621,10 @@
         <v>184</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1241</v>
+        <v>1279</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1242</v>
+        <v>1280</v>
       </c>
       <c r="M71" s="7">
         <v>219</v>
@@ -16477,13 +16633,13 @@
         <v>235501</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>1243</v>
+        <v>1281</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>1244</v>
+        <v>1282</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>1245</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -16498,13 +16654,13 @@
         <v>147288</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>973</v>
+        <v>1023</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>1246</v>
+        <v>1284</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1247</v>
+        <v>1285</v>
       </c>
       <c r="H72" s="7">
         <v>166</v>
@@ -16513,13 +16669,13 @@
         <v>177674</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>480</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>1249</v>
+        <v>1287</v>
       </c>
       <c r="M72" s="7">
         <v>313</v>
@@ -16528,13 +16684,13 @@
         <v>324962</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>1250</v>
+        <v>1288</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>1251</v>
+        <v>745</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>1252</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -16549,13 +16705,13 @@
         <v>154642</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>1091</v>
+        <v>1135</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1253</v>
+        <v>1290</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>1254</v>
+        <v>1291</v>
       </c>
       <c r="H73" s="7">
         <v>143</v>
@@ -16564,13 +16720,13 @@
         <v>158305</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>1255</v>
+        <v>1292</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>1256</v>
+        <v>1293</v>
       </c>
       <c r="M73" s="7">
         <v>293</v>
@@ -16579,13 +16735,13 @@
         <v>312947</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>837</v>
+        <v>887</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>1257</v>
+        <v>1294</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>1258</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -16600,13 +16756,13 @@
         <v>43360</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>1259</v>
+        <v>1296</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1260</v>
+        <v>1297</v>
       </c>
       <c r="H74" s="7">
         <v>41</v>
@@ -16615,13 +16771,13 @@
         <v>46957</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>1261</v>
+        <v>1298</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1262</v>
+        <v>1299</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="M74" s="7">
         <v>83</v>
@@ -16630,13 +16786,13 @@
         <v>90317</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>1264</v>
+        <v>733</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>1265</v>
+        <v>1301</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>1266</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -16678,7 +16834,7 @@
         <v>1052</v>
       </c>
       <c r="N75" s="7">
-        <v>1120734</v>
+        <v>1120733</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>79</v>
@@ -16704,10 +16860,10 @@
         <v>4927</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>847</v>
+        <v>898</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>83</v>
@@ -16722,10 +16878,10 @@
         <v>507</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>1267</v>
+        <v>1303</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
       <c r="M76" s="7">
         <v>8</v>
@@ -16734,13 +16890,13 @@
         <v>7803</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>1268</v>
+        <v>1304</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>1269</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -16755,7 +16911,7 @@
         <v>42153</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>433</v>
@@ -16770,13 +16926,13 @@
         <v>27341</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>852</v>
+        <v>903</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>1271</v>
+        <v>1307</v>
       </c>
       <c r="M77" s="7">
         <v>63</v>
@@ -16785,13 +16941,13 @@
         <v>69494</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>1195</v>
+        <v>1237</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>1194</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -16806,13 +16962,13 @@
         <v>82285</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>1272</v>
+        <v>1308</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>1273</v>
+        <v>1309</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>1274</v>
+        <v>727</v>
       </c>
       <c r="H78" s="7">
         <v>61</v>
@@ -16821,13 +16977,13 @@
         <v>64220</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>901</v>
+        <v>952</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>335</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>943</v>
+        <v>994</v>
       </c>
       <c r="M78" s="7">
         <v>134</v>
@@ -16836,10 +16992,10 @@
         <v>146505</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>902</v>
+        <v>724</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>854</v>
+        <v>905</v>
       </c>
       <c r="Q78" s="7" t="s">
         <v>92</v>
@@ -16860,10 +17016,10 @@
         <v>334</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>1275</v>
+        <v>1310</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>729</v>
+        <v>779</v>
       </c>
       <c r="H79" s="7">
         <v>187</v>
@@ -16872,13 +17028,13 @@
         <v>198103</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>1276</v>
+        <v>1311</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>556</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>1277</v>
+        <v>1312</v>
       </c>
       <c r="M79" s="7">
         <v>374</v>
@@ -16887,13 +17043,13 @@
         <v>399332</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>1278</v>
+        <v>1313</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>1279</v>
+        <v>1314</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>906</v>
+        <v>956</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -16908,13 +17064,13 @@
         <v>423292</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>1280</v>
+        <v>1315</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>1281</v>
+        <v>1316</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>1282</v>
+        <v>1317</v>
       </c>
       <c r="H80" s="7">
         <v>388</v>
@@ -16923,13 +17079,13 @@
         <v>403403</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>1283</v>
+        <v>1318</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>1284</v>
+        <v>1319</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>915</v>
+        <v>966</v>
       </c>
       <c r="M80" s="7">
         <v>790</v>
@@ -16938,13 +17094,13 @@
         <v>826695</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>1285</v>
+        <v>1320</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>912</v>
+        <v>962</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -16959,13 +17115,13 @@
         <v>787367</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>1287</v>
+        <v>1322</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>1288</v>
+        <v>1323</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>1289</v>
+        <v>1324</v>
       </c>
       <c r="H81" s="7">
         <v>765</v>
@@ -16974,13 +17130,13 @@
         <v>798256</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>1290</v>
+        <v>1325</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>1291</v>
+        <v>1326</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="M81" s="7">
         <v>1521</v>
@@ -16989,13 +17145,13 @@
         <v>1585623</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>1292</v>
+        <v>1327</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>1293</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -17010,13 +17166,13 @@
         <v>806819</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>1294</v>
+        <v>1329</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>1295</v>
+        <v>1330</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>1296</v>
+        <v>1331</v>
       </c>
       <c r="H82" s="7">
         <v>844</v>
@@ -17025,13 +17181,13 @@
         <v>911026</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>1297</v>
+        <v>1332</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>1298</v>
+        <v>1333</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>1299</v>
+        <v>1334</v>
       </c>
       <c r="M82" s="7">
         <v>1627</v>
@@ -17040,13 +17196,13 @@
         <v>1717845</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>1300</v>
+        <v>1335</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>1168</v>
+        <v>1210</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>1301</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -17061,13 +17217,13 @@
         <v>254769</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>1302</v>
+        <v>1337</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>1201</v>
+        <v>1243</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>1303</v>
+        <v>616</v>
       </c>
       <c r="H83" s="7">
         <v>269</v>
@@ -17076,13 +17232,13 @@
         <v>291899</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>1304</v>
+        <v>1338</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1305</v>
+        <v>1339</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>1306</v>
+        <v>1340</v>
       </c>
       <c r="M83" s="7">
         <v>510</v>
@@ -17091,13 +17247,13 @@
         <v>546668</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>1307</v>
+        <v>1341</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>1308</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
